--- a/Data/LDH/LDH 4-19-19/A549 + DEP Hypoxia LDH AD 4-19-19.xlsx
+++ b/Data/LDH/LDH 4-19-19/A549 + DEP Hypoxia LDH AD 4-19-19.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LDH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amjad\PycharmProjects\excel_analysis\Data\LDH\LDH 4-19-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A35515B-28CA-47D5-80DE-DE7941901696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,16 +476,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
         <v>1</v>
@@ -523,7 +524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -567,7 +568,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -611,7 +612,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -655,7 +656,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -699,7 +700,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -743,7 +744,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -787,7 +788,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -831,7 +832,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -875,7 +876,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
         <v>1</v>
@@ -914,7 +915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -958,7 +959,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -1046,7 +1047,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -1134,7 +1135,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1178,16 +1179,14 @@
         <v>490</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="3">
         <v>2.024</v>
       </c>
-      <c r="C20" s="10">
-        <v>1.512</v>
-      </c>
+      <c r="C20" s="10"/>
       <c r="D20" s="4">
         <v>0.439</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1266,7 +1265,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2">
         <v>1</v>
@@ -1305,7 +1304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1349,7 +1348,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
@@ -1393,7 +1392,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1437,7 +1436,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -1481,7 +1480,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -1525,7 +1524,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -1569,7 +1568,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1613,7 +1612,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
